--- a/biology/Botanique/Succédané_de_café/Succédané_de_café.xlsx
+++ b/biology/Botanique/Succédané_de_café/Succédané_de_café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Succ%C3%A9dan%C3%A9_de_caf%C3%A9</t>
+          <t>Succédané_de_café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les succédanés de café sont des plantes ou fruits de plantes utilisés en torréfaction pour remplacer le café, généralement car moins onéreux mais également pour leur absence de caféine. Un succédané est aussi nommé ersatz.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Succ%C3%A9dan%C3%A9_de_caf%C3%A9</t>
+          <t>Succédané_de_café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Succédanés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chicorée à café
 Pissenlit (Café de pissenlit)
@@ -528,7 +542,7 @@
 Orge ou malt d'orge
 Pois chiches
 Seigle
-Soja[1]
+Soja
 Postum (en) (son + mélasse)</t>
         </is>
       </c>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Succ%C3%A9dan%C3%A9_de_caf%C3%A9</t>
+          <t>Succédané_de_café</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Marques connues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ricoré</t>
         </is>
